--- a/data/pca/factorExposure/factorExposure_2010-07-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-07-01.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01633897074683319</v>
+        <v>-0.01639070103753087</v>
       </c>
       <c r="C2">
-        <v>0.005450502209178195</v>
+        <v>-0.0008065904750991832</v>
       </c>
       <c r="D2">
-        <v>-0.01267194880434747</v>
+        <v>-0.007355948510126593</v>
       </c>
       <c r="E2">
-        <v>0.01686544266104311</v>
+        <v>-0.001846813048385738</v>
       </c>
       <c r="F2">
-        <v>-0.02391173688826908</v>
+        <v>-0.01233839560206371</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1177149809568121</v>
+        <v>-0.09499468864616629</v>
       </c>
       <c r="C4">
-        <v>0.09722736771392695</v>
+        <v>-0.01797352446533158</v>
       </c>
       <c r="D4">
-        <v>0.00232796930564833</v>
+        <v>-0.08022775062081432</v>
       </c>
       <c r="E4">
-        <v>-0.1340293088372025</v>
+        <v>0.02827408376351715</v>
       </c>
       <c r="F4">
-        <v>-0.1109830422004112</v>
+        <v>0.04017882261102573</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1257707876426221</v>
+        <v>-0.1518706516104033</v>
       </c>
       <c r="C6">
-        <v>0.06354550922324817</v>
+        <v>-0.0243240618509416</v>
       </c>
       <c r="D6">
-        <v>0.001498668032266125</v>
+        <v>0.02239653776702383</v>
       </c>
       <c r="E6">
-        <v>-0.06373490616331902</v>
+        <v>0.0121429004937269</v>
       </c>
       <c r="F6">
-        <v>-0.03266119370228782</v>
+        <v>0.03881777865238449</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.07473545035861313</v>
+        <v>-0.06282454204084953</v>
       </c>
       <c r="C7">
-        <v>0.08082855750369869</v>
+        <v>-0.0003515770291559835</v>
       </c>
       <c r="D7">
-        <v>-0.006696053287290161</v>
+        <v>-0.05324225974281539</v>
       </c>
       <c r="E7">
-        <v>-0.01378784574440601</v>
+        <v>0.01305987902694836</v>
       </c>
       <c r="F7">
-        <v>-0.0001541872388864999</v>
+        <v>0.05797209507242023</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.04274125780085646</v>
+        <v>-0.05979874159462122</v>
       </c>
       <c r="C8">
-        <v>0.01579141122604388</v>
+        <v>0.01285285439737809</v>
       </c>
       <c r="D8">
-        <v>-0.01296002240616611</v>
+        <v>-0.02828516493816209</v>
       </c>
       <c r="E8">
-        <v>-0.06233737440759035</v>
+        <v>0.0111599480208721</v>
       </c>
       <c r="F8">
-        <v>-0.08582155502085913</v>
+        <v>-0.021119099975112</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.08634081052194488</v>
+        <v>-0.07248237953363604</v>
       </c>
       <c r="C9">
-        <v>0.06746651188536901</v>
+        <v>-0.01449659642516641</v>
       </c>
       <c r="D9">
-        <v>0.01584907620611811</v>
+        <v>-0.07819716856601826</v>
       </c>
       <c r="E9">
-        <v>-0.1038631039688483</v>
+        <v>0.02101081292561279</v>
       </c>
       <c r="F9">
-        <v>-0.08355118488916433</v>
+        <v>0.06128402046579384</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.1341128465507003</v>
+        <v>-0.09159263384185286</v>
       </c>
       <c r="C10">
-        <v>-0.1858495525294099</v>
+        <v>-0.01346665641283581</v>
       </c>
       <c r="D10">
-        <v>-0.0174212241340533</v>
+        <v>0.1722359815180287</v>
       </c>
       <c r="E10">
-        <v>0.0340140597011456</v>
+        <v>-0.03440287051535951</v>
       </c>
       <c r="F10">
-        <v>0.04823363338278214</v>
+        <v>-0.04969586137715866</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.0676627929231824</v>
+        <v>-0.08869053227211343</v>
       </c>
       <c r="C11">
-        <v>0.05629552260521863</v>
+        <v>-0.01372645400910678</v>
       </c>
       <c r="D11">
-        <v>0.04417313987304035</v>
+        <v>-0.1096436440696484</v>
       </c>
       <c r="E11">
-        <v>-0.0767381151323554</v>
+        <v>0.04089142949272872</v>
       </c>
       <c r="F11">
-        <v>-0.0608775569100221</v>
+        <v>0.02795320062637444</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.07647766735188606</v>
+        <v>-0.09404467536737653</v>
       </c>
       <c r="C12">
-        <v>0.07035894981504838</v>
+        <v>-0.01135359161778071</v>
       </c>
       <c r="D12">
-        <v>0.05882388059235641</v>
+        <v>-0.1163291934549127</v>
       </c>
       <c r="E12">
-        <v>-0.1172733774901524</v>
+        <v>0.03957048814264102</v>
       </c>
       <c r="F12">
-        <v>-0.03607454465746589</v>
+        <v>0.03062302223940162</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04341468589414725</v>
+        <v>-0.04467321215639281</v>
       </c>
       <c r="C13">
-        <v>0.04017290568940601</v>
+        <v>-0.0048469084040524</v>
       </c>
       <c r="D13">
-        <v>-0.02431825140057715</v>
+        <v>-0.04256906828303286</v>
       </c>
       <c r="E13">
-        <v>-0.03504349590398219</v>
+        <v>-0.01348293703539815</v>
       </c>
       <c r="F13">
-        <v>-0.03495397725861272</v>
+        <v>0.02237591213233473</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.04029989360656953</v>
+        <v>-0.02235431018737277</v>
       </c>
       <c r="C14">
-        <v>0.03316710553299085</v>
+        <v>-0.01508176355895143</v>
       </c>
       <c r="D14">
-        <v>0.005376539143689507</v>
+        <v>-0.02995079731028451</v>
       </c>
       <c r="E14">
-        <v>-0.04292531794826613</v>
+        <v>0.01523487882341287</v>
       </c>
       <c r="F14">
-        <v>-0.04240851607677682</v>
+        <v>0.02770732978717914</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.02533632090356126</v>
+        <v>-0.03262778985083176</v>
       </c>
       <c r="C15">
-        <v>0.01916852064570465</v>
+        <v>-0.006241253408300613</v>
       </c>
       <c r="D15">
-        <v>-0.07263170628041499</v>
+        <v>-0.04043334913343923</v>
       </c>
       <c r="E15">
-        <v>0.001045246696724898</v>
+        <v>0.00740220524216292</v>
       </c>
       <c r="F15">
-        <v>-0.03709967026188467</v>
+        <v>0.03539750229042981</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.08120784233015724</v>
+        <v>-0.07579513308904934</v>
       </c>
       <c r="C16">
-        <v>0.07344009898288932</v>
+        <v>-0.005284968422082363</v>
       </c>
       <c r="D16">
-        <v>0.04216297072726032</v>
+        <v>-0.1141771436665947</v>
       </c>
       <c r="E16">
-        <v>-0.09238362115442932</v>
+        <v>0.05685602716108448</v>
       </c>
       <c r="F16">
-        <v>-0.03477292940972745</v>
+        <v>0.03624994162112112</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.01720126410580526</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003954395631517943</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.02326964565127331</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-0.01063759325876314</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-0.02846329212186771</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.0459730344669034</v>
+        <v>-0.06124856967640481</v>
       </c>
       <c r="C20">
-        <v>0.02302381663685335</v>
+        <v>-0.002927968665994095</v>
       </c>
       <c r="D20">
-        <v>-0.03364684057093311</v>
+        <v>-0.0681069042760029</v>
       </c>
       <c r="E20">
-        <v>-0.07324646342901084</v>
+        <v>0.04966878213070135</v>
       </c>
       <c r="F20">
-        <v>-0.02388606915491832</v>
+        <v>0.0326590316926317</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03473726181641643</v>
+        <v>-0.03813590150747743</v>
       </c>
       <c r="C21">
-        <v>0.0226123659074878</v>
+        <v>-0.008193560702629296</v>
       </c>
       <c r="D21">
-        <v>0.02231889636263542</v>
+        <v>-0.0332232119040659</v>
       </c>
       <c r="E21">
-        <v>-0.05674580046161903</v>
+        <v>-0.01258973880723459</v>
       </c>
       <c r="F21">
-        <v>-0.04526007592183733</v>
+        <v>-0.01681392525028994</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.05889939092824012</v>
+        <v>-0.04266720425141624</v>
       </c>
       <c r="C22">
-        <v>0.03113454231437275</v>
+        <v>-0.0009330076878770672</v>
       </c>
       <c r="D22">
-        <v>-0.6473003934457218</v>
+        <v>0.0008678606053450345</v>
       </c>
       <c r="E22">
-        <v>-0.05102222106511033</v>
+        <v>0.03397639264180931</v>
       </c>
       <c r="F22">
-        <v>0.1068162690812389</v>
+        <v>-0.02464718092011527</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.05945546008228307</v>
+        <v>-0.04270464396299049</v>
       </c>
       <c r="C23">
-        <v>0.03243609161903648</v>
+        <v>-0.0009558912319830422</v>
       </c>
       <c r="D23">
-        <v>-0.649393294100305</v>
+        <v>0.0006930328153679878</v>
       </c>
       <c r="E23">
-        <v>-0.05494580222829832</v>
+        <v>0.03434128834759932</v>
       </c>
       <c r="F23">
-        <v>0.1043509372435484</v>
+        <v>-0.02407315907563824</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.07766244587429265</v>
+        <v>-0.08206273971411604</v>
       </c>
       <c r="C24">
-        <v>0.0704758047182826</v>
+        <v>-0.005406074494676162</v>
       </c>
       <c r="D24">
-        <v>0.03748386291486655</v>
+        <v>-0.1147562767867147</v>
       </c>
       <c r="E24">
-        <v>-0.09171646525012918</v>
+        <v>0.04488819314023948</v>
       </c>
       <c r="F24">
-        <v>-0.04422970117237802</v>
+        <v>0.0288380892961829</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.07656827588378626</v>
+        <v>-0.0863564711263</v>
       </c>
       <c r="C25">
-        <v>0.05247105643031295</v>
+        <v>-0.007646433303798723</v>
       </c>
       <c r="D25">
-        <v>0.05818299435495317</v>
+        <v>-0.09974498432077757</v>
       </c>
       <c r="E25">
-        <v>-0.09606264186095513</v>
+        <v>0.02627230657048232</v>
       </c>
       <c r="F25">
-        <v>-0.04581798073561637</v>
+        <v>0.03800557025216859</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.04247365810008796</v>
+        <v>-0.05673634568326335</v>
       </c>
       <c r="C26">
-        <v>0.01452402582287149</v>
+        <v>-0.01538312883596017</v>
       </c>
       <c r="D26">
-        <v>-0.01583756600862838</v>
+        <v>-0.0301926466084211</v>
       </c>
       <c r="E26">
-        <v>-0.09084931659574369</v>
+        <v>0.02389902719932038</v>
       </c>
       <c r="F26">
-        <v>0.01645789022501908</v>
+        <v>0.002701773675710116</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1548534600388125</v>
+        <v>-0.1378327159980085</v>
       </c>
       <c r="C28">
-        <v>-0.2732460447131115</v>
+        <v>-0.01063910274261106</v>
       </c>
       <c r="D28">
-        <v>0.004935206310877231</v>
+        <v>0.2742889207581507</v>
       </c>
       <c r="E28">
-        <v>-0.02144653114338946</v>
+        <v>-0.06603178463571921</v>
       </c>
       <c r="F28">
-        <v>-0.01098414534572041</v>
+        <v>0.0468370306764721</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.03718560846521081</v>
+        <v>-0.02731813157971067</v>
       </c>
       <c r="C29">
-        <v>0.02653471039224755</v>
+        <v>-0.009236575561976506</v>
       </c>
       <c r="D29">
-        <v>0.007214040974846828</v>
+        <v>-0.02848238483182524</v>
       </c>
       <c r="E29">
-        <v>-0.04239255742846433</v>
+        <v>0.008027097193719104</v>
       </c>
       <c r="F29">
-        <v>-0.03620791931610433</v>
+        <v>-0.005739886375367849</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.08105290593790684</v>
+        <v>-0.06481705904748228</v>
       </c>
       <c r="C30">
-        <v>0.06568208640673447</v>
+        <v>-0.007679905925920098</v>
       </c>
       <c r="D30">
-        <v>0.01947474233037079</v>
+        <v>-0.07579728163648164</v>
       </c>
       <c r="E30">
-        <v>-0.2986258545915225</v>
+        <v>0.02042078998383638</v>
       </c>
       <c r="F30">
-        <v>-0.007922279521720374</v>
+        <v>0.1235522396023496</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.02876048015906991</v>
+        <v>-0.04846522984972698</v>
       </c>
       <c r="C31">
-        <v>0.05598624940749672</v>
+        <v>-0.01527626375118158</v>
       </c>
       <c r="D31">
-        <v>-0.005113038277458604</v>
+        <v>-0.02883597484530332</v>
       </c>
       <c r="E31">
-        <v>-0.02724082720592121</v>
+        <v>0.02635444355215616</v>
       </c>
       <c r="F31">
-        <v>-0.02821358943923252</v>
+        <v>-0.002628301627559242</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04975478120542734</v>
+        <v>-0.04850771622257852</v>
       </c>
       <c r="C32">
-        <v>0.0106625747806755</v>
+        <v>-0.001146024348612204</v>
       </c>
       <c r="D32">
-        <v>0.04869928813179223</v>
+        <v>-0.02523538724688153</v>
       </c>
       <c r="E32">
-        <v>0.002061168189329361</v>
+        <v>0.02427884217941621</v>
       </c>
       <c r="F32">
-        <v>-0.1090409333280815</v>
+        <v>0.005898522744614788</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09585979062842577</v>
+        <v>-0.09172328596214209</v>
       </c>
       <c r="C33">
-        <v>0.07187515232941184</v>
+        <v>-0.01063114806433412</v>
       </c>
       <c r="D33">
-        <v>0.02297568106131676</v>
+        <v>-0.08899015548655406</v>
       </c>
       <c r="E33">
-        <v>-0.06493390743934237</v>
+        <v>0.04299319079937317</v>
       </c>
       <c r="F33">
-        <v>-0.01436296339226341</v>
+        <v>0.04322329440706618</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06833325382276328</v>
+        <v>-0.06907262658953134</v>
       </c>
       <c r="C34">
-        <v>0.04822990185162861</v>
+        <v>-0.01325967268326528</v>
       </c>
       <c r="D34">
-        <v>0.04881243207119007</v>
+        <v>-0.09334955015777441</v>
       </c>
       <c r="E34">
-        <v>-0.0783964630740502</v>
+        <v>0.02727326846660769</v>
       </c>
       <c r="F34">
-        <v>-0.04497732209494405</v>
+        <v>0.05361417990965011</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.01640280768116417</v>
+        <v>-0.02432321236308373</v>
       </c>
       <c r="C35">
-        <v>0.01307504283153</v>
+        <v>-0.00277066346600651</v>
       </c>
       <c r="D35">
-        <v>-0.00415405922555223</v>
+        <v>-0.009933218075995872</v>
       </c>
       <c r="E35">
-        <v>-0.02323073458535391</v>
+        <v>0.01176616647834521</v>
       </c>
       <c r="F35">
-        <v>-0.01317232918371294</v>
+        <v>0.01320373206060749</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02821011075976284</v>
+        <v>-0.02627512436592737</v>
       </c>
       <c r="C36">
-        <v>0.02047072262922659</v>
+        <v>-0.007067545173801311</v>
       </c>
       <c r="D36">
-        <v>-0.01732783858090226</v>
+        <v>-0.03857006028890232</v>
       </c>
       <c r="E36">
-        <v>-0.08389754571771642</v>
+        <v>0.01618957521240478</v>
       </c>
       <c r="F36">
-        <v>-0.0308301339505777</v>
+        <v>0.01373766822964846</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.02462081183813905</v>
+        <v>-0.003052777107438268</v>
       </c>
       <c r="C38">
-        <v>0.05284320727731556</v>
+        <v>-0.0005731202929513349</v>
       </c>
       <c r="D38">
-        <v>-0.02390050101768077</v>
+        <v>-0.003295117243769737</v>
       </c>
       <c r="E38">
-        <v>0.06019567640507525</v>
+        <v>0.004243924202198966</v>
       </c>
       <c r="F38">
-        <v>0.112234215627097</v>
+        <v>-0.00346405710900643</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.09978045774476581</v>
+        <v>-0.1119910764053213</v>
       </c>
       <c r="C39">
-        <v>0.08117316011744576</v>
+        <v>-0.01951954221786775</v>
       </c>
       <c r="D39">
-        <v>0.1336509248997263</v>
+        <v>-0.1472151648482181</v>
       </c>
       <c r="E39">
-        <v>-0.1849159551119693</v>
+        <v>0.04945583744806718</v>
       </c>
       <c r="F39">
-        <v>0.03718304267247725</v>
+        <v>0.03974274049846325</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.02296876840919498</v>
+        <v>-0.037254585616986</v>
       </c>
       <c r="C40">
-        <v>0.0592002451096459</v>
+        <v>-0.007727851193402835</v>
       </c>
       <c r="D40">
-        <v>-0.02561273866333059</v>
+        <v>-0.02613166020976768</v>
       </c>
       <c r="E40">
-        <v>-0.0237133684355834</v>
+        <v>0.001931905170685892</v>
       </c>
       <c r="F40">
-        <v>-0.09953057285025282</v>
+        <v>-0.01483165922993959</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.03201113985333132</v>
+        <v>-0.02644279266413103</v>
       </c>
       <c r="C41">
-        <v>0.02367045191215937</v>
+        <v>-0.006749782345297855</v>
       </c>
       <c r="D41">
-        <v>0.02136038924472248</v>
+        <v>-0.01156275634275117</v>
       </c>
       <c r="E41">
-        <v>-0.01073922707108253</v>
+        <v>0.01085073967355222</v>
       </c>
       <c r="F41">
-        <v>0.01978741397610883</v>
+        <v>-0.01186675095243373</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04728070447014502</v>
+        <v>-0.04330105330736381</v>
       </c>
       <c r="C43">
-        <v>0.04788838070527941</v>
+        <v>-0.00713474050765711</v>
       </c>
       <c r="D43">
-        <v>-0.01281284748859364</v>
+        <v>-0.02215561355249884</v>
       </c>
       <c r="E43">
-        <v>-0.03471979373940636</v>
+        <v>0.0259195355686406</v>
       </c>
       <c r="F43">
-        <v>0.04343940088579431</v>
+        <v>-0.01099304987780383</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.09378202623410221</v>
+        <v>-0.07389228783797389</v>
       </c>
       <c r="C44">
-        <v>0.09306263613748325</v>
+        <v>-0.02390260956082138</v>
       </c>
       <c r="D44">
-        <v>-0.0548609961671005</v>
+        <v>-0.09861854235192208</v>
       </c>
       <c r="E44">
-        <v>-0.09469014187135155</v>
+        <v>0.06465789821591093</v>
       </c>
       <c r="F44">
-        <v>-0.09767339597702</v>
+        <v>0.1818568373194092</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.03804063684008337</v>
+        <v>-0.02396528283894873</v>
       </c>
       <c r="C46">
-        <v>0.03625235370646872</v>
+        <v>-0.004229522292097266</v>
       </c>
       <c r="D46">
-        <v>-0.04831692077873043</v>
+        <v>-0.0129485447998807</v>
       </c>
       <c r="E46">
-        <v>-0.01381920362594178</v>
+        <v>0.02268434684824848</v>
       </c>
       <c r="F46">
-        <v>-0.0492590199273792</v>
+        <v>-0.002595812130383797</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05476680642095397</v>
+        <v>-0.05286844595814706</v>
       </c>
       <c r="C47">
-        <v>0.0440566263879228</v>
+        <v>-0.003370625000473523</v>
       </c>
       <c r="D47">
-        <v>-0.0001929377552780949</v>
+        <v>-0.01303620950865302</v>
       </c>
       <c r="E47">
-        <v>-0.02703448950112028</v>
+        <v>0.02252893203070789</v>
       </c>
       <c r="F47">
-        <v>0.008415925487353088</v>
+        <v>-0.04781420641056996</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04574791347101981</v>
+        <v>-0.04825887833672215</v>
       </c>
       <c r="C48">
-        <v>0.01564732239229034</v>
+        <v>-0.003304033948453669</v>
       </c>
       <c r="D48">
-        <v>0.009787763485467813</v>
+        <v>-0.04368152437843818</v>
       </c>
       <c r="E48">
-        <v>-0.07333519669588651</v>
+        <v>-0.008866228220939267</v>
       </c>
       <c r="F48">
-        <v>-0.07500170349507966</v>
+        <v>0.02006398080203984</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2377237778108822</v>
+        <v>-0.2068439654278678</v>
       </c>
       <c r="C49">
-        <v>0.05454739569366931</v>
+        <v>-0.01684591096537186</v>
       </c>
       <c r="D49">
-        <v>0.03734770580803141</v>
+        <v>0.004227189502746876</v>
       </c>
       <c r="E49">
-        <v>0.2588941591759567</v>
+        <v>0.04156939888227466</v>
       </c>
       <c r="F49">
-        <v>0.1347770866498646</v>
+        <v>0.03349173176788516</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.03497020414123293</v>
+        <v>-0.04875549506996079</v>
       </c>
       <c r="C50">
-        <v>0.04768826917638121</v>
+        <v>-0.01146773320606351</v>
       </c>
       <c r="D50">
-        <v>0.009062333359180321</v>
+        <v>-0.02742955823184059</v>
       </c>
       <c r="E50">
-        <v>-0.06626079006981511</v>
+        <v>0.02849494334670794</v>
       </c>
       <c r="F50">
-        <v>-0.006569158151279563</v>
+        <v>0.006233770700874498</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.03027626420741354</v>
+        <v>-0.003516684258094903</v>
       </c>
       <c r="C51">
-        <v>0.002617462610369041</v>
+        <v>-0.0008274837607448717</v>
       </c>
       <c r="D51">
-        <v>0.001015913725136726</v>
+        <v>0.001497040688214961</v>
       </c>
       <c r="E51">
-        <v>0.05192295220119566</v>
+        <v>0.001582347021290086</v>
       </c>
       <c r="F51">
-        <v>0.0146836385567925</v>
+        <v>0.004397901974179144</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.02359871443277969</v>
+        <v>-0.141007239391552</v>
       </c>
       <c r="C52">
-        <v>0.009879208692613776</v>
+        <v>-0.01252967512318336</v>
       </c>
       <c r="D52">
-        <v>0.02440170724451236</v>
+        <v>-0.04994251023977959</v>
       </c>
       <c r="E52">
-        <v>-0.004231421832710821</v>
+        <v>0.01512205448853799</v>
       </c>
       <c r="F52">
-        <v>0.0191021131516554</v>
+        <v>0.02955431359852066</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1441290934957446</v>
+        <v>-0.1727340193629417</v>
       </c>
       <c r="C53">
-        <v>0.05931710079412527</v>
+        <v>-0.01528470439468333</v>
       </c>
       <c r="D53">
-        <v>-0.01148030480378727</v>
+        <v>-0.01761319936892906</v>
       </c>
       <c r="E53">
-        <v>0.04031497364140958</v>
+        <v>0.0384133195096244</v>
       </c>
       <c r="F53">
-        <v>0.1054620705886836</v>
+        <v>0.0560098290376963</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.06116744148272858</v>
+        <v>-0.02236945120879416</v>
       </c>
       <c r="C54">
-        <v>0.03734842543515126</v>
+        <v>-0.01317692123243031</v>
       </c>
       <c r="D54">
-        <v>-0.007120069665723165</v>
+        <v>-0.02915587252687818</v>
       </c>
       <c r="E54">
-        <v>-0.1070154983134919</v>
+        <v>0.01581585729490908</v>
       </c>
       <c r="F54">
-        <v>-0.09953254745765673</v>
+        <v>0.000415815163992262</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.08194408174313919</v>
+        <v>-0.11445155617089</v>
       </c>
       <c r="C55">
-        <v>0.05132026065248045</v>
+        <v>-0.01434346564477289</v>
       </c>
       <c r="D55">
-        <v>0.03280082464949035</v>
+        <v>-0.01582354239925382</v>
       </c>
       <c r="E55">
-        <v>0.01299763210874842</v>
+        <v>0.02995917388305103</v>
       </c>
       <c r="F55">
-        <v>0.03160425035072439</v>
+        <v>0.04594371064666278</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1386317202490696</v>
+        <v>-0.1774772340132425</v>
       </c>
       <c r="C56">
-        <v>0.0938622660930284</v>
+        <v>-0.01291020706298872</v>
       </c>
       <c r="D56">
-        <v>0.02152565360385879</v>
+        <v>-0.01419210202530269</v>
       </c>
       <c r="E56">
-        <v>0.01606903550209039</v>
+        <v>0.04238064996471285</v>
       </c>
       <c r="F56">
-        <v>0.06845063387126467</v>
+        <v>0.02611589921411818</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.02902687935428914</v>
+        <v>-0.04713351764292815</v>
       </c>
       <c r="C58">
-        <v>0.0383293047542389</v>
+        <v>-0.003508556541432174</v>
       </c>
       <c r="D58">
-        <v>-0.02806755645535464</v>
+        <v>-0.06307911175861006</v>
       </c>
       <c r="E58">
-        <v>-0.04755910369910279</v>
+        <v>0.01438896772819623</v>
       </c>
       <c r="F58">
-        <v>0.001380500783998493</v>
+        <v>-0.04338024478693694</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.2099966295998021</v>
+        <v>-0.1698721509069484</v>
       </c>
       <c r="C59">
-        <v>-0.2374557467831177</v>
+        <v>-0.01245320198489272</v>
       </c>
       <c r="D59">
-        <v>0.05219056742175451</v>
+        <v>0.2302343679046017</v>
       </c>
       <c r="E59">
-        <v>0.03411254405806664</v>
+        <v>-0.04700880665703269</v>
       </c>
       <c r="F59">
-        <v>-0.03325639148329403</v>
+        <v>-0.03036660895956672</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2368963814780279</v>
+        <v>-0.2397960037513216</v>
       </c>
       <c r="C60">
-        <v>0.1386994428547306</v>
+        <v>0.004423771765260725</v>
       </c>
       <c r="D60">
-        <v>0.08129965370191979</v>
+        <v>-0.05388442398184942</v>
       </c>
       <c r="E60">
-        <v>0.1013559851410566</v>
+        <v>0.01125020058225474</v>
       </c>
       <c r="F60">
-        <v>0.03552505016718941</v>
+        <v>-0.04609924583554821</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.09385731659910222</v>
+        <v>-0.08572818926932323</v>
       </c>
       <c r="C61">
-        <v>0.06312450492427904</v>
+        <v>-0.01494584851895489</v>
       </c>
       <c r="D61">
-        <v>0.07593345119926723</v>
+        <v>-0.1066349748553973</v>
       </c>
       <c r="E61">
-        <v>-0.140897835279138</v>
+        <v>0.0335882476564083</v>
       </c>
       <c r="F61">
-        <v>-0.01912169545901256</v>
+        <v>0.02658150743569297</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1273649453994642</v>
+        <v>-0.1686210789385414</v>
       </c>
       <c r="C62">
-        <v>0.07378297608147907</v>
+        <v>-0.01696264288254513</v>
       </c>
       <c r="D62">
-        <v>0.004203335445745591</v>
+        <v>-0.01288293027630082</v>
       </c>
       <c r="E62">
-        <v>0.0391645925181471</v>
+        <v>0.03808276999243537</v>
       </c>
       <c r="F62">
-        <v>0.07154148507310419</v>
+        <v>0.01043334821518763</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04558646223709261</v>
+        <v>-0.04265340642767453</v>
       </c>
       <c r="C63">
-        <v>0.01415191345760613</v>
+        <v>-0.004397805286326902</v>
       </c>
       <c r="D63">
-        <v>0.008936467325917269</v>
+        <v>-0.04605267463047492</v>
       </c>
       <c r="E63">
-        <v>-0.07088677089376441</v>
+        <v>0.01408753581576436</v>
       </c>
       <c r="F63">
-        <v>-0.01359920039939104</v>
+        <v>0.01164895372508799</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.09556894469216361</v>
+        <v>-0.1121120747992631</v>
       </c>
       <c r="C64">
-        <v>0.06087950132125874</v>
+        <v>-0.01201200973198311</v>
       </c>
       <c r="D64">
-        <v>0.005131380524110264</v>
+        <v>-0.03855095572652486</v>
       </c>
       <c r="E64">
-        <v>-0.08288844993782189</v>
+        <v>0.01891149800498878</v>
       </c>
       <c r="F64">
-        <v>-0.006244375091878653</v>
+        <v>0.01770424119487134</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1209761948519588</v>
+        <v>-0.1429089665565728</v>
       </c>
       <c r="C65">
-        <v>0.04383435342757815</v>
+        <v>-0.03072086715766432</v>
       </c>
       <c r="D65">
-        <v>0.01531392426549308</v>
+        <v>0.04726027127234721</v>
       </c>
       <c r="E65">
-        <v>-0.09591365967525194</v>
+        <v>0.003048952469280965</v>
       </c>
       <c r="F65">
-        <v>-0.003232721706165328</v>
+        <v>0.04113340105174382</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1100189864774757</v>
+        <v>-0.1340010382425597</v>
       </c>
       <c r="C66">
-        <v>0.1212041017567131</v>
+        <v>-0.01705995534630851</v>
       </c>
       <c r="D66">
-        <v>0.1295756287468844</v>
+        <v>-0.1337321789218889</v>
       </c>
       <c r="E66">
-        <v>-0.1667016768563852</v>
+        <v>0.05892880849086387</v>
       </c>
       <c r="F66">
-        <v>0.04258088530480534</v>
+        <v>0.04479511405696758</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.07859686253877846</v>
+        <v>-0.06566100594032388</v>
       </c>
       <c r="C67">
-        <v>0.06556570839152598</v>
+        <v>-0.004479908220869557</v>
       </c>
       <c r="D67">
-        <v>-0.02535116755952732</v>
+        <v>-0.05520134121189396</v>
       </c>
       <c r="E67">
-        <v>0.04212633623417412</v>
+        <v>0.01935162353645168</v>
       </c>
       <c r="F67">
-        <v>0.1354339847097375</v>
+        <v>-0.04360279742476687</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1292143676747028</v>
+        <v>-0.1109459765626512</v>
       </c>
       <c r="C68">
-        <v>-0.2709022506560089</v>
+        <v>-0.02147366068026809</v>
       </c>
       <c r="D68">
-        <v>0.01163454180391294</v>
+        <v>0.2716985585529742</v>
       </c>
       <c r="E68">
-        <v>-0.04778660208683051</v>
+        <v>-0.08504144382907226</v>
       </c>
       <c r="F68">
-        <v>-0.005687692205909261</v>
+        <v>0.05133381076475935</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04514048079763388</v>
+        <v>-0.04065437595129153</v>
       </c>
       <c r="C69">
-        <v>0.01630058514716372</v>
+        <v>-0.001182079510183339</v>
       </c>
       <c r="D69">
-        <v>-0.00686326549620949</v>
+        <v>-0.008700667064265647</v>
       </c>
       <c r="E69">
-        <v>-0.02206589800284354</v>
+        <v>0.0259986496360927</v>
       </c>
       <c r="F69">
-        <v>0.03315190726920454</v>
+        <v>-0.01623720160965471</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.05030981381203919</v>
+        <v>-0.06449622013504</v>
       </c>
       <c r="C70">
-        <v>0.0580284012021142</v>
+        <v>0.02711534735363689</v>
       </c>
       <c r="D70">
-        <v>0.02796810221058057</v>
+        <v>-0.01474964373216572</v>
       </c>
       <c r="E70">
-        <v>-0.05816458481565284</v>
+        <v>-0.04379224310451621</v>
       </c>
       <c r="F70">
-        <v>-0.01522848870982664</v>
+        <v>-0.3319781435008637</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1477838772972137</v>
+        <v>-0.1303989840778673</v>
       </c>
       <c r="C71">
-        <v>-0.2747974494890965</v>
+        <v>-0.0255032260025707</v>
       </c>
       <c r="D71">
-        <v>0.01079165005156697</v>
+        <v>0.2878932994210393</v>
       </c>
       <c r="E71">
-        <v>-0.06366161365205733</v>
+        <v>-0.09263932585363358</v>
       </c>
       <c r="F71">
-        <v>-0.001832596559284614</v>
+        <v>0.05317757781680271</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1234611360842498</v>
+        <v>-0.1377800610875719</v>
       </c>
       <c r="C72">
-        <v>0.02254100689879988</v>
+        <v>-0.02364035757098856</v>
       </c>
       <c r="D72">
-        <v>0.006138994095887348</v>
+        <v>-0.006350450426713882</v>
       </c>
       <c r="E72">
-        <v>-0.05459811533862327</v>
+        <v>0.04154719402151964</v>
       </c>
       <c r="F72">
-        <v>0.03419065702944364</v>
+        <v>0.02431769252746776</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2260734178362845</v>
+        <v>-0.2091556902149338</v>
       </c>
       <c r="C73">
-        <v>0.114985108674297</v>
+        <v>-0.01143497019357409</v>
       </c>
       <c r="D73">
-        <v>0.1419320530493266</v>
+        <v>-0.02209639585987362</v>
       </c>
       <c r="E73">
-        <v>0.415464467336717</v>
+        <v>0.06961737038886304</v>
       </c>
       <c r="F73">
-        <v>0.3036450990756864</v>
+        <v>0.02134716274720079</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.089234384348489</v>
+        <v>-0.0938581105861412</v>
       </c>
       <c r="C74">
-        <v>0.08539401370484456</v>
+        <v>-0.01177560661964337</v>
       </c>
       <c r="D74">
-        <v>0.005049993329300936</v>
+        <v>-0.02612008349641545</v>
       </c>
       <c r="E74">
-        <v>0.01105281181817254</v>
+        <v>0.05112833244941864</v>
       </c>
       <c r="F74">
-        <v>0.1087771590694439</v>
+        <v>0.04008243244464652</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.09211388549173363</v>
+        <v>-0.1301967362675262</v>
       </c>
       <c r="C75">
-        <v>0.06032120303263355</v>
+        <v>-0.02600190799788868</v>
       </c>
       <c r="D75">
-        <v>0.0005657725729499837</v>
+        <v>-0.03676215034238937</v>
       </c>
       <c r="E75">
-        <v>0.007782730889973339</v>
+        <v>0.05912176935139445</v>
       </c>
       <c r="F75">
-        <v>0.0179891640662539</v>
+        <v>0.006280157941353627</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.07183368717526037</v>
+        <v>-0.008648663858468722</v>
       </c>
       <c r="C76">
-        <v>0.07358505816871364</v>
+        <v>-0.001911440897524273</v>
       </c>
       <c r="D76">
-        <v>-0.004106600540012129</v>
+        <v>-0.003589467460679402</v>
       </c>
       <c r="E76">
-        <v>0.04439338366242249</v>
+        <v>0.008866248980409346</v>
       </c>
       <c r="F76">
-        <v>0.03280960179597223</v>
+        <v>0.002829462271341218</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.06662643211386308</v>
+        <v>-0.08083188145024399</v>
       </c>
       <c r="C77">
-        <v>0.02368336983154473</v>
+        <v>-0.01185427670946914</v>
       </c>
       <c r="D77">
-        <v>0.03697204076585679</v>
+        <v>-0.1012044947433423</v>
       </c>
       <c r="E77">
-        <v>-0.1658225283915308</v>
+        <v>0.03165731463525017</v>
       </c>
       <c r="F77">
-        <v>-0.1362660266073183</v>
+        <v>0.03752644211095366</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1753760579111985</v>
+        <v>-0.1101386534751189</v>
       </c>
       <c r="C78">
-        <v>0.1679942423335932</v>
+        <v>-0.0442842665371577</v>
       </c>
       <c r="D78">
-        <v>-0.1620020859516658</v>
+        <v>-0.1185727619937534</v>
       </c>
       <c r="E78">
-        <v>0.2102081936248742</v>
+        <v>0.09109507451164454</v>
       </c>
       <c r="F78">
-        <v>-0.6030719669547582</v>
+        <v>0.0749325310666512</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1293140801581272</v>
+        <v>-0.1625850325771685</v>
       </c>
       <c r="C79">
-        <v>0.07938291522318136</v>
+        <v>-0.02003082246415861</v>
       </c>
       <c r="D79">
-        <v>-0.005643607918034958</v>
+        <v>-0.02088590703368815</v>
       </c>
       <c r="E79">
-        <v>0.003527230927362756</v>
+        <v>0.04884607878485044</v>
       </c>
       <c r="F79">
-        <v>0.04454846768139063</v>
+        <v>0.00394306424893918</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.06827527984945089</v>
+        <v>-0.08038296031643188</v>
       </c>
       <c r="C80">
-        <v>0.03937890837280784</v>
+        <v>0.001107160274332146</v>
       </c>
       <c r="D80">
-        <v>0.07788571137253406</v>
+        <v>-0.05820185085282374</v>
       </c>
       <c r="E80">
-        <v>-0.05502960569994714</v>
+        <v>0.02828071218716811</v>
       </c>
       <c r="F80">
-        <v>0.03551077674572777</v>
+        <v>-0.009016898990870542</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1250374921049854</v>
+        <v>-0.1223189995980739</v>
       </c>
       <c r="C81">
-        <v>0.04919878520065322</v>
+        <v>-0.02976109404695768</v>
       </c>
       <c r="D81">
-        <v>-0.01325593540701736</v>
+        <v>-0.02392408475449255</v>
       </c>
       <c r="E81">
-        <v>-0.05629228579319504</v>
+        <v>0.05833805442057604</v>
       </c>
       <c r="F81">
-        <v>0.02600568349414322</v>
+        <v>-0.00561616898709269</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1209276675021643</v>
+        <v>-0.1620334990996059</v>
       </c>
       <c r="C82">
-        <v>0.05944324942454402</v>
+        <v>-0.02018494970324383</v>
       </c>
       <c r="D82">
-        <v>0.009263179488268313</v>
+        <v>-0.02088760292387647</v>
       </c>
       <c r="E82">
-        <v>-0.01862101277769435</v>
+        <v>0.03475632645633031</v>
       </c>
       <c r="F82">
-        <v>0.1023699766196056</v>
+        <v>0.05044871708122084</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.08255466035194675</v>
+        <v>-0.06681168712511876</v>
       </c>
       <c r="C83">
-        <v>0.08188107925183351</v>
+        <v>-0.004229085379354952</v>
       </c>
       <c r="D83">
-        <v>0.01576317259714842</v>
+        <v>-0.0466923287051684</v>
       </c>
       <c r="E83">
-        <v>-0.05891640406709413</v>
+        <v>0.003891565462660173</v>
       </c>
       <c r="F83">
-        <v>0.08609664773896869</v>
+        <v>-0.03062134874945897</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.05181207867264737</v>
+        <v>-0.06097413971293391</v>
       </c>
       <c r="C84">
-        <v>-0.06695895138035425</v>
+        <v>-0.01193489444685884</v>
       </c>
       <c r="D84">
-        <v>0.04097270181847964</v>
+        <v>-0.05976023886602685</v>
       </c>
       <c r="E84">
-        <v>0.04339174808215311</v>
+        <v>-0.004240704447215095</v>
       </c>
       <c r="F84">
-        <v>-0.2231781769634539</v>
+        <v>0.01621324807895259</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1183520774083829</v>
+        <v>-0.1377859364979545</v>
       </c>
       <c r="C85">
-        <v>0.0512642957684097</v>
+        <v>-0.02541925438047051</v>
       </c>
       <c r="D85">
-        <v>0.005448070276709119</v>
+        <v>-0.01716049180624804</v>
       </c>
       <c r="E85">
-        <v>0.004119637012726056</v>
+        <v>0.04033819460581584</v>
       </c>
       <c r="F85">
-        <v>0.05701172087111435</v>
+        <v>0.0382316126121394</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.09341996916241975</v>
+        <v>-0.1002278511108685</v>
       </c>
       <c r="C86">
-        <v>0.01394691294345286</v>
+        <v>0.006952366928386097</v>
       </c>
       <c r="D86">
-        <v>-0.01987620241331818</v>
+        <v>-0.01269438896524476</v>
       </c>
       <c r="E86">
-        <v>0.3363216166548844</v>
+        <v>0.1325844996060678</v>
       </c>
       <c r="F86">
-        <v>-0.4129164763599522</v>
+        <v>-0.83396551054153</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1242930066703159</v>
+        <v>-0.1012081711862542</v>
       </c>
       <c r="C87">
-        <v>0.07040924637734575</v>
+        <v>-0.02619964082511228</v>
       </c>
       <c r="D87">
-        <v>-0.009723572456656063</v>
+        <v>-0.07163469903054799</v>
       </c>
       <c r="E87">
-        <v>-0.0673478574638971</v>
+        <v>-0.05376773373702621</v>
       </c>
       <c r="F87">
-        <v>-0.03463282753340239</v>
+        <v>0.09412378496533796</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05902143407715246</v>
+        <v>-0.06190082820094145</v>
       </c>
       <c r="C88">
-        <v>0.06199399411912855</v>
+        <v>-0.003393729482919084</v>
       </c>
       <c r="D88">
-        <v>0.03368446637682328</v>
+        <v>-0.05569536330638733</v>
       </c>
       <c r="E88">
-        <v>-0.02150646264703507</v>
+        <v>0.0260760354682802</v>
       </c>
       <c r="F88">
-        <v>0.02266910651899832</v>
+        <v>0.006288379045013026</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.2323483925144126</v>
+        <v>-0.1322081510867019</v>
       </c>
       <c r="C89">
-        <v>-0.370355523794258</v>
+        <v>-0.004378345424233245</v>
       </c>
       <c r="D89">
-        <v>-0.05649067508565327</v>
+        <v>0.2727938525585668</v>
       </c>
       <c r="E89">
-        <v>0.02982613062224791</v>
+        <v>-0.09085048847249493</v>
       </c>
       <c r="F89">
-        <v>-0.02193074315685636</v>
+        <v>0.03447681180004626</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.157645952472067</v>
+        <v>-0.1422741760281573</v>
       </c>
       <c r="C90">
-        <v>-0.2557390822965829</v>
+        <v>-0.02088627019395722</v>
       </c>
       <c r="D90">
-        <v>0.009931365766078963</v>
+        <v>0.2731915037392328</v>
       </c>
       <c r="E90">
-        <v>-0.02151794692370814</v>
+        <v>-0.1031940238389934</v>
       </c>
       <c r="F90">
-        <v>0.01367013732763054</v>
+        <v>0.03907267960081992</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.07480049494369835</v>
+        <v>-0.116758255423936</v>
       </c>
       <c r="C91">
-        <v>0.06313387840702374</v>
+        <v>-0.01599435003450459</v>
       </c>
       <c r="D91">
-        <v>-0.005222259151395488</v>
+        <v>0.001160047081623142</v>
       </c>
       <c r="E91">
-        <v>0.01929634705059548</v>
+        <v>0.05903815535087598</v>
       </c>
       <c r="F91">
-        <v>0.009172249854000976</v>
+        <v>-0.03279305805342039</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1676794665248225</v>
+        <v>-0.1446775671897352</v>
       </c>
       <c r="C92">
-        <v>-0.293873473454713</v>
+        <v>-0.01226569888993913</v>
       </c>
       <c r="D92">
-        <v>-0.03235134880336654</v>
+        <v>0.3069482611104592</v>
       </c>
       <c r="E92">
-        <v>-0.04515812830843838</v>
+        <v>-0.09942271952890057</v>
       </c>
       <c r="F92">
-        <v>-0.04353925276840304</v>
+        <v>0.03111936306427517</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1710351826712822</v>
+        <v>-0.1461626298866603</v>
       </c>
       <c r="C93">
-        <v>-0.3039241341582792</v>
+        <v>-0.01749567665845935</v>
       </c>
       <c r="D93">
-        <v>0.03568737552119982</v>
+        <v>0.2783165865106569</v>
       </c>
       <c r="E93">
-        <v>-0.02209979351454295</v>
+        <v>-0.07033582436429353</v>
       </c>
       <c r="F93">
-        <v>-0.0132686923299844</v>
+        <v>0.03104540896816053</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1185621390517622</v>
+        <v>-0.1336256316331288</v>
       </c>
       <c r="C94">
-        <v>0.08166818681098802</v>
+        <v>-0.02340556609781535</v>
       </c>
       <c r="D94">
-        <v>-0.01245136258644403</v>
+        <v>-0.04961864596255627</v>
       </c>
       <c r="E94">
-        <v>0.02344623561389741</v>
+        <v>0.06138614542892494</v>
       </c>
       <c r="F94">
-        <v>0.05209557067820944</v>
+        <v>0.02467487964288331</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1427957153075208</v>
+        <v>-0.1275969985663673</v>
       </c>
       <c r="C95">
-        <v>0.06333216670602347</v>
+        <v>-0.006317974533319433</v>
       </c>
       <c r="D95">
-        <v>-0.01364567883179437</v>
+        <v>-0.0882587766016714</v>
       </c>
       <c r="E95">
-        <v>-0.03392760226621064</v>
+        <v>0.0404598991182831</v>
       </c>
       <c r="F95">
-        <v>-0.1357525561929286</v>
+        <v>-0.009207729840359058</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.09447791208311336</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.9894199650105513</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.01432684889986316</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.06039446240558536</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.05029095350869984</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1202017576867518</v>
+        <v>-0.1878807241984932</v>
       </c>
       <c r="C97">
-        <v>-0.02858865121866489</v>
+        <v>0.0125509434127873</v>
       </c>
       <c r="D97">
-        <v>-0.02488754911422774</v>
+        <v>0.01526323150779503</v>
       </c>
       <c r="E97">
-        <v>-0.321066702694687</v>
+        <v>0.01250538798336659</v>
       </c>
       <c r="F97">
-        <v>0.1253219971012743</v>
+        <v>-0.1647634980553099</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2573479738143085</v>
+        <v>-0.2070572895353054</v>
       </c>
       <c r="C98">
-        <v>0.1110022057150507</v>
+        <v>-0.006968165754617829</v>
       </c>
       <c r="D98">
-        <v>-0.06491861164127447</v>
+        <v>-0.01451409669395572</v>
       </c>
       <c r="E98">
-        <v>0.2233312498555654</v>
+        <v>-0.08838006400107901</v>
       </c>
       <c r="F98">
-        <v>0.1255042101571717</v>
+        <v>-0.140870261702873</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.06982284298575982</v>
+        <v>-0.05790949852651735</v>
       </c>
       <c r="C99">
-        <v>0.05694820369932582</v>
+        <v>0.002942995045907336</v>
       </c>
       <c r="D99">
-        <v>-0.01293565680653045</v>
+        <v>-0.03366302584176634</v>
       </c>
       <c r="E99">
-        <v>0.04117641418694594</v>
+        <v>0.02669496778708031</v>
       </c>
       <c r="F99">
-        <v>0.02041321300878031</v>
+        <v>0.004400184713750825</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.1222904270346236</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.04802261500539096</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-0.3226814438609222</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.9062906945240665</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-0.06198732573623196</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.03766584406226661</v>
+        <v>-0.02722120948414385</v>
       </c>
       <c r="C101">
-        <v>0.02643273551041636</v>
+        <v>-0.009156888079729586</v>
       </c>
       <c r="D101">
-        <v>0.007431762456528273</v>
+        <v>-0.02815815789682617</v>
       </c>
       <c r="E101">
-        <v>-0.03961137178278042</v>
+        <v>0.008226477973894501</v>
       </c>
       <c r="F101">
-        <v>-0.03534614695728406</v>
+        <v>-0.007804225844750009</v>
       </c>
     </row>
     <row r="102" spans="1:6">
